--- a/Excels/Производство глинозема2.xlsx
+++ b/Excels/Производство глинозема2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9335" tabRatio="473" firstSheet="2" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="473" firstSheet="3" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Заметки" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,21 +15,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Исходные данные" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\.mmm"/>
     <numFmt numFmtId="165" formatCode="_-* #\ ##0.00\ _₽_-;\-* #\ ##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -44,157 +41,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Tahoma"/>
       <charset val="1"/>
       <b val="1"/>
@@ -205,8 +51,15 @@
       <charset val="1"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -227,7 +80,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.7999511703848384"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,188 +96,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -450,258 +123,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -709,88 +142,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1162,6 +538,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1177,7 +554,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1254,8 +631,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="10.3333333333333" customWidth="1" style="12" min="2" max="2"/>
-    <col width="12.8888888888889" customWidth="1" style="12" min="9" max="10"/>
+    <col width="10.33203125" customWidth="1" min="2" max="2"/>
+    <col width="12.88671875" customWidth="1" min="9" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1564,7 +941,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>10. Содержание SiO2  в алюминатном растворе после выщелачивания</t>
         </is>
@@ -1573,7 +950,7 @@
         <f>I16/'Исходные данные'!J61</f>
         <v/>
       </c>
-      <c r="K17" s="31" t="inlineStr">
+      <c r="K17" s="19" t="inlineStr">
         <is>
           <t>SiO2 который выделится на 1 стадии обескремнивания</t>
         </is>
@@ -2300,22 +1677,22 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="31" t="inlineStr">
+      <c r="B74" s="19" t="inlineStr">
         <is>
           <t>Расчет обьема оборот раствора</t>
         </is>
       </c>
-      <c r="C74" s="31" t="n"/>
-      <c r="D74" s="31" t="n"/>
-      <c r="E74" s="31" t="n"/>
-      <c r="F74" s="31" t="n"/>
-      <c r="G74" s="31" t="n"/>
-      <c r="H74" s="31" t="n"/>
-      <c r="I74" s="31">
+      <c r="C74" s="19" t="n"/>
+      <c r="D74" s="19" t="n"/>
+      <c r="E74" s="19" t="n"/>
+      <c r="F74" s="19" t="n"/>
+      <c r="G74" s="19" t="n"/>
+      <c r="H74" s="19" t="n"/>
+      <c r="I74" s="19">
         <f>'Приготовление шихты'!I70/'Исходные данные'!J68</f>
         <v/>
       </c>
-      <c r="J74" s="31" t="inlineStr">
+      <c r="J74" s="19" t="inlineStr">
         <is>
           <t>л</t>
         </is>
@@ -2354,8 +1731,8 @@
           <t>Расчет влажности шихты</t>
         </is>
       </c>
-      <c r="I77" s="32">
-        <f>'Приготовление шихты'!I76/Таблицы!N14</f>
+      <c r="I77" s="20">
+        <f>'Приготовление шихты'!I76/Таблицы!N15</f>
         <v/>
       </c>
     </row>
@@ -2455,7 +1832,7 @@
           <t>H2O</t>
         </is>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <f>'Исходные данные'!J72-('Выщелачивание спека'!C3+'Выщелачивание спека'!C4+'Выщелачивание спека'!C6+'Выщелачивание спека'!C7)</f>
         <v/>
       </c>
@@ -2715,30 +2092,30 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="30">
+      <c r="B31" s="18">
         <f>Таблицы!D39*I27/I28</f>
         <v/>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="18">
         <f>Таблицы!D39*Таблицы!E39/'Выщелачивание спека'!I28</f>
         <v/>
       </c>
-      <c r="D31" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="30">
+      <c r="D31" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
         <f>G31*44/62</f>
         <v/>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="18">
         <f>B31*'Исходные данные'!J78/1.645</f>
         <v/>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="18">
         <f>Таблицы!D39*Таблицы!I42/'Выщелачивание спека'!I28</f>
         <v/>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="18">
         <f>I27-(SUM(B31:G31))</f>
         <v/>
       </c>
@@ -2991,7 +2368,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="12.8888888888889" customWidth="1" style="12" min="7" max="7"/>
+    <col width="12.88671875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -3248,18 +2625,18 @@
   </sheetPr>
   <dimension ref="B3:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M143" sqref="M143"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="15.1111111111111" customWidth="1" style="12" min="4" max="4"/>
-    <col width="12.8888888888889" customWidth="1" style="12" min="5" max="13"/>
+    <col width="15.109375" customWidth="1" min="4" max="4"/>
+    <col width="12.88671875" customWidth="1" min="5" max="14"/>
   </cols>
   <sheetData>
     <row r="3">
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>Таблица 13</t>
         </is>
@@ -3323,14 +2700,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Боксит</t>
         </is>
@@ -3378,7 +2755,7 @@
         <f>SUM(D6:M6)</f>
         <v/>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <f>'Приготовление шихты'!H7</f>
         <v/>
       </c>
@@ -3428,7 +2805,7 @@
         <f>SUM(D7:M7)</f>
         <v/>
       </c>
-      <c r="O7" s="11" t="n"/>
+      <c r="O7" s="9" t="n"/>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -3478,7 +2855,7 @@
         <f>SUM(D8:M8)</f>
         <v/>
       </c>
-      <c r="O8" s="11" t="n"/>
+      <c r="O8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -3523,7 +2900,7 @@
         <f>SUM(D9:M9)</f>
         <v/>
       </c>
-      <c r="O9" s="11" t="n"/>
+      <c r="O9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -3569,7 +2946,7 @@
         <f>SUM(D10:M10)</f>
         <v/>
       </c>
-      <c r="O10" s="11" t="n"/>
+      <c r="O10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -3615,7 +2992,7 @@
         <f>SUM(D11:M11)</f>
         <v/>
       </c>
-      <c r="O11" s="11" t="n"/>
+      <c r="O11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -3667,106 +3044,108 @@
         <f>SUM(N6:N11)</f>
         <v/>
       </c>
-      <c r="O12" s="11" t="n"/>
+      <c r="O12" s="9" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="21" t="inlineStr">
         <is>
           <t>Получено, кг</t>
         </is>
       </c>
-      <c r="O13" s="11" t="n"/>
+      <c r="O13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>Пульпа</t>
-        </is>
-      </c>
-      <c r="D14">
-        <f>SUM(D6:D11)-D15</f>
-        <v/>
-      </c>
-      <c r="E14">
-        <f>SUM(E6:E11)-E15</f>
-        <v/>
-      </c>
-      <c r="F14">
-        <f>SUM(F6:F11)-F15</f>
-        <v/>
-      </c>
-      <c r="G14">
-        <f>SUM(G6:G11)-G15</f>
-        <v/>
-      </c>
-      <c r="H14">
-        <f>SUM(H6:H11)-H15</f>
-        <v/>
-      </c>
-      <c r="I14">
-        <f>SUM(I6:I11)-I15</f>
-        <v/>
+          <t>Потери</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
       <c r="J14">
-        <f>SUM(J6:J11)-J15</f>
-        <v/>
-      </c>
-      <c r="K14">
-        <f>SUM(K6:K11)-K15</f>
-        <v/>
-      </c>
-      <c r="L14">
-        <f>SUM(L6:L11)-L15</f>
-        <v/>
-      </c>
-      <c r="M14">
-        <f>SUM(M6:M11)-M15</f>
-        <v/>
+        <f>'Исходные данные'!H37</f>
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
       </c>
       <c r="N14">
-        <f>SUM(N6:N11)-N15</f>
-        <v/>
-      </c>
-      <c r="O14" s="11" t="n"/>
+        <f>SUM(D14:M14)</f>
+        <v/>
+      </c>
+      <c r="O14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>Потери</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+          <t>Пульпа</t>
+        </is>
+      </c>
+      <c r="D15">
+        <f>SUM(D6:D11)-D14</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>SUM(E6:E11)-E14</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>SUM(F6:F11)-F14</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>SUM(G6:G11)-G14</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>SUM(H6:H11)-H14</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>SUM(I6:I11)-I14</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>SUM(J6:J11)-J14</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <f>SUM(K6:K11)-K14</f>
+        <v/>
+      </c>
+      <c r="L15">
+        <f>SUM(L6:L11)-L14</f>
+        <v/>
+      </c>
+      <c r="M15">
+        <f>SUM(M6:M11)-M14</f>
+        <v/>
+      </c>
+      <c r="N15">
+        <f>SUM(N6:N11)-N14</f>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -3776,43 +3155,43 @@
         </is>
       </c>
       <c r="D16">
-        <f>SUM(D14:D15)</f>
+        <f>SUM(D15:D15)</f>
         <v/>
       </c>
       <c r="E16">
-        <f>SUM(E14:E15)</f>
+        <f>SUM(E15:E15)</f>
         <v/>
       </c>
       <c r="F16">
-        <f>SUM(F14:F15)</f>
+        <f>SUM(F15:F15)</f>
         <v/>
       </c>
       <c r="G16">
-        <f>SUM(G14:G15)</f>
+        <f>SUM(G15:G15)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>SUM(H14:H15)</f>
+        <f>SUM(H15:H15)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>SUM(I14:I15)</f>
+        <f>SUM(I15:I15)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>SUM(J14:J15)</f>
+        <f>SUM(J15:J15)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>SUM(K14:K15)</f>
+        <f>SUM(K15:K15)</f>
         <v/>
       </c>
       <c r="L16">
-        <f>SUM(L14:L15)</f>
+        <f>SUM(L15:L15)</f>
         <v/>
       </c>
       <c r="M16">
-        <f>SUM(M14:M15)</f>
+        <f>SUM(M15:M15)</f>
         <v/>
       </c>
       <c r="N16">
@@ -3821,7 +3200,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="21" t="inlineStr">
         <is>
           <t>Таблица 14</t>
         </is>
@@ -3898,47 +3277,47 @@
         </is>
       </c>
       <c r="D22">
-        <f>D14</f>
+        <f>D15</f>
         <v/>
       </c>
       <c r="E22">
-        <f>E14</f>
+        <f>E15</f>
         <v/>
       </c>
       <c r="F22">
-        <f>F14</f>
+        <f>F15</f>
         <v/>
       </c>
       <c r="G22">
-        <f>G14</f>
+        <f>G15</f>
         <v/>
       </c>
       <c r="H22">
-        <f>H14</f>
+        <f>H15</f>
         <v/>
       </c>
       <c r="I22">
-        <f>I14</f>
+        <f>I15</f>
         <v/>
       </c>
       <c r="J22">
-        <f>J14</f>
+        <f>J15</f>
         <v/>
       </c>
       <c r="K22">
-        <f>K14</f>
+        <f>K15</f>
         <v/>
       </c>
       <c r="L22">
-        <f>L14</f>
+        <f>L15</f>
         <v/>
       </c>
       <c r="M22">
-        <f>M14</f>
+        <f>M15</f>
         <v/>
       </c>
       <c r="N22">
-        <f>N14</f>
+        <f>N15</f>
         <v/>
       </c>
     </row>
@@ -4242,10 +3621,8 @@
         <v/>
       </c>
     </row>
-    <row r="30"/>
-    <row r="31"/>
     <row r="33">
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" s="21" t="inlineStr">
         <is>
           <t>Таблица 15</t>
         </is>
@@ -4622,7 +3999,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="21" t="inlineStr">
         <is>
           <t>Таблица 16</t>
         </is>
@@ -5025,7 +4402,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="21" t="inlineStr">
         <is>
           <t>Таблица 17</t>
         </is>
@@ -5489,7 +4866,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" s="21" t="inlineStr">
         <is>
           <t>Таблица 18</t>
         </is>
@@ -5792,11 +5169,11 @@
       <c r="K89" t="n">
         <v>0</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="11">
         <f>L87</f>
         <v/>
       </c>
-      <c r="M89" s="26">
+      <c r="M89" s="12">
         <f>D89/102*36</f>
         <v/>
       </c>
@@ -5827,7 +5204,7 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <f>'Исходные данные'!C58/2</f>
         <v/>
       </c>
@@ -5951,7 +5328,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" s="21" t="inlineStr">
         <is>
           <t>Таблица 19</t>
         </is>
@@ -6005,20 +5382,20 @@
       </c>
     </row>
     <row r="97">
-      <c r="C97" s="33" t="inlineStr">
+      <c r="C97" s="22" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D97" s="33" t="n"/>
-      <c r="E97" s="33" t="n"/>
-      <c r="F97" s="33" t="n"/>
-      <c r="G97" s="33" t="n"/>
-      <c r="H97" s="33" t="n"/>
-      <c r="I97" s="33" t="n"/>
-      <c r="J97" s="33" t="n"/>
-      <c r="K97" s="33" t="n"/>
-      <c r="L97" s="33" t="n"/>
+      <c r="D97" s="22" t="n"/>
+      <c r="E97" s="22" t="n"/>
+      <c r="F97" s="22" t="n"/>
+      <c r="G97" s="22" t="n"/>
+      <c r="H97" s="22" t="n"/>
+      <c r="I97" s="22" t="n"/>
+      <c r="J97" s="22" t="n"/>
+      <c r="K97" s="22" t="n"/>
+      <c r="L97" s="22" t="n"/>
     </row>
     <row r="98">
       <c r="C98" t="inlineStr">
@@ -6407,7 +5784,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" s="21" t="inlineStr">
         <is>
           <t>Таблица 20</t>
         </is>
@@ -6461,20 +5838,20 @@
       </c>
     </row>
     <row r="113">
-      <c r="C113" s="33" t="inlineStr">
+      <c r="C113" s="22" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D113" s="33" t="n"/>
-      <c r="E113" s="33" t="n"/>
-      <c r="F113" s="33" t="n"/>
-      <c r="G113" s="33" t="n"/>
-      <c r="H113" s="33" t="n"/>
-      <c r="I113" s="33" t="n"/>
-      <c r="J113" s="33" t="n"/>
-      <c r="K113" s="33" t="n"/>
-      <c r="L113" s="33" t="n"/>
+      <c r="D113" s="22" t="n"/>
+      <c r="E113" s="22" t="n"/>
+      <c r="F113" s="22" t="n"/>
+      <c r="G113" s="22" t="n"/>
+      <c r="H113" s="22" t="n"/>
+      <c r="I113" s="22" t="n"/>
+      <c r="J113" s="22" t="n"/>
+      <c r="K113" s="22" t="n"/>
+      <c r="L113" s="22" t="n"/>
     </row>
     <row r="114">
       <c r="C114" t="inlineStr">
@@ -6867,19 +6244,19 @@
       </c>
     </row>
     <row r="127">
-      <c r="C127" s="33" t="inlineStr">
+      <c r="C127" s="22" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D127" s="33" t="n"/>
-      <c r="E127" s="33" t="n"/>
-      <c r="F127" s="33" t="n"/>
-      <c r="G127" s="33" t="n"/>
-      <c r="H127" s="33" t="n"/>
-      <c r="I127" s="33" t="n"/>
-      <c r="J127" s="33" t="n"/>
-      <c r="K127" s="33" t="n"/>
+      <c r="D127" s="22" t="n"/>
+      <c r="E127" s="22" t="n"/>
+      <c r="F127" s="22" t="n"/>
+      <c r="G127" s="22" t="n"/>
+      <c r="H127" s="22" t="n"/>
+      <c r="I127" s="22" t="n"/>
+      <c r="J127" s="22" t="n"/>
+      <c r="K127" s="22" t="n"/>
     </row>
     <row r="128">
       <c r="C128" t="inlineStr">
@@ -7160,7 +6537,7 @@
           <t>Алюминатный раствор на карбонизацию</t>
         </is>
       </c>
-      <c r="D136" s="34">
+      <c r="D136" s="13">
         <f>D137-(SUM(D134:D135))</f>
         <v/>
       </c>
@@ -7282,22 +6659,22 @@
       </c>
     </row>
     <row r="142">
-      <c r="C142" s="33" t="inlineStr">
+      <c r="C142" s="22" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D142" s="33" t="n"/>
-      <c r="E142" s="17">
+      <c r="D142" s="22" t="n"/>
+      <c r="E142" s="14">
         <f>E136</f>
         <v/>
       </c>
-      <c r="F142" s="33" t="n"/>
-      <c r="G142" s="33" t="n"/>
-      <c r="H142" s="33" t="n"/>
-      <c r="I142" s="33" t="n"/>
-      <c r="J142" s="33" t="n"/>
-      <c r="K142" s="33" t="n"/>
+      <c r="F142" s="22" t="n"/>
+      <c r="G142" s="22" t="n"/>
+      <c r="H142" s="22" t="n"/>
+      <c r="I142" s="22" t="n"/>
+      <c r="J142" s="22" t="n"/>
+      <c r="K142" s="22" t="n"/>
     </row>
     <row r="143">
       <c r="C143" t="inlineStr">
@@ -7305,11 +6682,11 @@
           <t>Алюминатный раствор на 2 стадии обескремнивания</t>
         </is>
       </c>
-      <c r="D143" s="34">
+      <c r="D143" s="13">
         <f>D136</f>
         <v/>
       </c>
-      <c r="E143" s="17" t="n">
+      <c r="E143" s="14" t="n">
         <v>0</v>
       </c>
       <c r="F143">
@@ -7347,26 +6724,26 @@
         <f>'Кальцинация и карбонизация'!G10</f>
         <v/>
       </c>
-      <c r="E144" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" s="26">
+      <c r="E144" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" s="12">
         <f>'Кальцинация и карбонизация'!G11</f>
         <v/>
       </c>
-      <c r="K144" s="26">
+      <c r="K144" s="12">
         <f>SUM(D144:J144)</f>
         <v/>
       </c>
@@ -7381,29 +6758,29 @@
         <f>'Кальцинация и карбонизация'!B17</f>
         <v/>
       </c>
-      <c r="E145" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" s="26">
+      <c r="E145" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12">
         <f>'Кальцинация и карбонизация'!E17</f>
         <v/>
       </c>
-      <c r="H145" s="26">
+      <c r="H145" s="12">
         <f>'Кальцинация и карбонизация'!C17</f>
         <v/>
       </c>
-      <c r="I145" s="26">
+      <c r="I145" s="12">
         <f>'Кальцинация и карбонизация'!D17</f>
         <v/>
       </c>
-      <c r="J145" s="26">
+      <c r="J145" s="12">
         <f>'Кальцинация и карбонизация'!F17</f>
         <v/>
       </c>
-      <c r="K145" s="26">
+      <c r="K145" s="12">
         <f>SUM(D145:J145)</f>
         <v/>
       </c>
@@ -7436,7 +6813,7 @@
       <c r="J146" t="n">
         <v>0</v>
       </c>
-      <c r="K146" s="26">
+      <c r="K146" s="12">
         <f>SUM(D146:J146)</f>
         <v/>
       </c>
@@ -7447,35 +6824,35 @@
           <t>Всего</t>
         </is>
       </c>
-      <c r="D147" s="34">
+      <c r="D147" s="13">
         <f>SUM(D143:D146)</f>
         <v/>
       </c>
-      <c r="E147" s="34">
+      <c r="E147" s="13">
         <f>SUM(E142:E146)</f>
         <v/>
       </c>
-      <c r="F147" s="34">
+      <c r="F147" s="13">
         <f>SUM(F143:F146)</f>
         <v/>
       </c>
-      <c r="G147" s="34">
+      <c r="G147" s="13">
         <f>SUM(G143:G146)</f>
         <v/>
       </c>
-      <c r="H147" s="34">
+      <c r="H147" s="13">
         <f>SUM(H143:H146)</f>
         <v/>
       </c>
-      <c r="I147" s="34">
+      <c r="I147" s="13">
         <f>SUM(I143:I146)</f>
         <v/>
       </c>
-      <c r="J147" s="34">
+      <c r="J147" s="13">
         <f>SUM(J143:J146)</f>
         <v/>
       </c>
-      <c r="K147" s="26">
+      <c r="K147" s="12">
         <f>SUM(K143:K146)</f>
         <v/>
       </c>
@@ -7486,13 +6863,13 @@
           <t>Получено, кг</t>
         </is>
       </c>
-      <c r="E148" s="26" t="n"/>
-      <c r="F148" s="26" t="n"/>
-      <c r="G148" s="26" t="n"/>
-      <c r="H148" s="26" t="n"/>
-      <c r="I148" s="26" t="n"/>
-      <c r="J148" s="26" t="n"/>
-      <c r="K148" s="26">
+      <c r="E148" s="12" t="n"/>
+      <c r="F148" s="12" t="n"/>
+      <c r="G148" s="12" t="n"/>
+      <c r="H148" s="12" t="n"/>
+      <c r="I148" s="12" t="n"/>
+      <c r="J148" s="12" t="n"/>
+      <c r="K148" s="12">
         <f>SUM(D148:J148)</f>
         <v/>
       </c>
@@ -7531,7 +6908,7 @@
         <f>J144</f>
         <v/>
       </c>
-      <c r="K149" s="26">
+      <c r="K149" s="12">
         <f>SUM(D149:J149)</f>
         <v/>
       </c>
@@ -7570,7 +6947,7 @@
         <f>J145</f>
         <v/>
       </c>
-      <c r="K150" s="26">
+      <c r="K150" s="12">
         <f>SUM(D150:J150)</f>
         <v/>
       </c>
@@ -7585,27 +6962,27 @@
         <f>'Кальцинация и карбонизация'!G3</f>
         <v/>
       </c>
-      <c r="E151" s="26">
+      <c r="E151" s="12">
         <f>E142</f>
         <v/>
       </c>
-      <c r="F151" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" s="26">
+      <c r="F151" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" s="12">
         <f>K151-D151-E151</f>
         <v/>
       </c>
-      <c r="K151" s="26">
+      <c r="K151" s="12">
         <f>'Кальцинация и карбонизация'!G4</f>
         <v/>
       </c>
@@ -7616,35 +6993,35 @@
           <t>Содовый раствор2</t>
         </is>
       </c>
-      <c r="D152" s="34">
+      <c r="D152" s="13">
         <f>D154-D149-D150-D151-D153</f>
         <v/>
       </c>
-      <c r="E152" s="34">
+      <c r="E152" s="13">
         <f>E154-E149-E150-E151-E153</f>
         <v/>
       </c>
-      <c r="F152" s="34">
+      <c r="F152" s="13">
         <f>F154-F149-F150-F151-F153</f>
         <v/>
       </c>
-      <c r="G152" s="34">
+      <c r="G152" s="13">
         <f>G154-G149-G150-G151-G153</f>
         <v/>
       </c>
-      <c r="H152" s="34">
+      <c r="H152" s="13">
         <f>'Кальцинация и карбонизация'!G7</f>
         <v/>
       </c>
-      <c r="I152" s="34">
+      <c r="I152" s="13">
         <f>'Кальцинация и карбонизация'!G8</f>
         <v/>
       </c>
-      <c r="J152" s="34">
+      <c r="J152" s="13">
         <f>J154-J149-J150-J151-J153</f>
         <v/>
       </c>
-      <c r="K152" s="26">
+      <c r="K152" s="12">
         <f>SUM(D152:J152)</f>
         <v/>
       </c>
@@ -7659,26 +7036,26 @@
         <f>'Исходные данные'!F44</f>
         <v/>
       </c>
-      <c r="E153" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" s="26">
+      <c r="E153" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="12">
         <f>'Исходные данные'!H44</f>
         <v/>
       </c>
-      <c r="I153" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" s="26">
+      <c r="I153" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="12">
         <f>SUM(D153:J153)</f>
         <v/>
       </c>
@@ -7689,762 +7066,762 @@
           <t>Всего</t>
         </is>
       </c>
-      <c r="D154" s="34">
+      <c r="D154" s="13">
         <f>D147</f>
         <v/>
       </c>
-      <c r="E154" s="34">
+      <c r="E154" s="13">
         <f>E147</f>
         <v/>
       </c>
-      <c r="F154" s="34">
+      <c r="F154" s="13">
         <f>F147</f>
         <v/>
       </c>
-      <c r="G154" s="34">
+      <c r="G154" s="13">
         <f>G147</f>
         <v/>
       </c>
-      <c r="H154" s="34">
+      <c r="H154" s="13">
         <f>H147</f>
         <v/>
       </c>
-      <c r="I154" s="34">
+      <c r="I154" s="13">
         <f>I147</f>
         <v/>
       </c>
-      <c r="J154" s="34">
+      <c r="J154" s="13">
         <f>J147</f>
         <v/>
       </c>
-      <c r="K154" s="26">
+      <c r="K154" s="12">
         <f>SUM(K149:K153)</f>
         <v/>
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="26" t="n"/>
-      <c r="C155" s="26" t="n"/>
-      <c r="D155" s="26" t="n"/>
-      <c r="E155" s="26" t="n"/>
-      <c r="F155" s="26" t="n"/>
-      <c r="G155" s="26" t="n"/>
-      <c r="H155" s="26" t="n"/>
-      <c r="I155" s="26" t="n"/>
-      <c r="J155" s="26" t="n"/>
-      <c r="K155" s="26" t="n"/>
-      <c r="L155" s="26" t="n"/>
-      <c r="M155" s="26" t="n"/>
+      <c r="B155" s="12" t="n"/>
+      <c r="C155" s="12" t="n"/>
+      <c r="D155" s="12" t="n"/>
+      <c r="E155" s="12" t="n"/>
+      <c r="F155" s="12" t="n"/>
+      <c r="G155" s="12" t="n"/>
+      <c r="H155" s="12" t="n"/>
+      <c r="I155" s="12" t="n"/>
+      <c r="J155" s="12" t="n"/>
+      <c r="K155" s="12" t="n"/>
+      <c r="L155" s="12" t="n"/>
+      <c r="M155" s="12" t="n"/>
     </row>
     <row r="156">
-      <c r="B156" s="26" t="n"/>
-      <c r="C156" s="26" t="inlineStr">
+      <c r="B156" s="12" t="n"/>
+      <c r="C156" s="12" t="inlineStr">
         <is>
           <t>Таблица 23</t>
         </is>
       </c>
-      <c r="D156" s="26" t="n"/>
-      <c r="E156" s="26" t="n"/>
-      <c r="F156" s="26" t="n"/>
-      <c r="G156" s="26" t="n"/>
-      <c r="H156" s="26" t="n"/>
-      <c r="I156" s="26" t="n"/>
-      <c r="J156" s="26" t="n"/>
-      <c r="K156" s="26" t="n"/>
-      <c r="L156" s="26" t="n"/>
-      <c r="M156" s="26" t="n"/>
+      <c r="D156" s="12" t="n"/>
+      <c r="E156" s="12" t="n"/>
+      <c r="F156" s="12" t="n"/>
+      <c r="G156" s="12" t="n"/>
+      <c r="H156" s="12" t="n"/>
+      <c r="I156" s="12" t="n"/>
+      <c r="J156" s="12" t="n"/>
+      <c r="K156" s="12" t="n"/>
+      <c r="L156" s="12" t="n"/>
+      <c r="M156" s="12" t="n"/>
     </row>
     <row r="157">
-      <c r="B157" s="26" t="n"/>
-      <c r="C157" s="26" t="n"/>
-      <c r="D157" s="26" t="inlineStr">
+      <c r="B157" s="12" t="n"/>
+      <c r="C157" s="12" t="n"/>
+      <c r="D157" s="12" t="inlineStr">
         <is>
           <t>Al2O3</t>
         </is>
       </c>
-      <c r="E157" s="26" t="inlineStr">
+      <c r="E157" s="12" t="inlineStr">
         <is>
           <t>SiO2</t>
         </is>
       </c>
-      <c r="F157" s="26" t="inlineStr">
+      <c r="F157" s="12" t="inlineStr">
         <is>
           <t>CaO</t>
         </is>
       </c>
-      <c r="G157" s="26" t="inlineStr">
+      <c r="G157" s="12" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H157" s="26" t="inlineStr">
+      <c r="H157" s="12" t="inlineStr">
         <is>
           <t>Na2Oк</t>
         </is>
       </c>
-      <c r="I157" s="26" t="inlineStr">
+      <c r="I157" s="12" t="inlineStr">
         <is>
           <t>Na2Oy</t>
         </is>
       </c>
-      <c r="J157" s="26" t="inlineStr">
+      <c r="J157" s="12" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="K157" s="26" t="inlineStr">
+      <c r="K157" s="12" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="L157" s="26" t="n"/>
-      <c r="M157" s="26" t="n"/>
+      <c r="L157" s="12" t="n"/>
+      <c r="M157" s="12" t="n"/>
     </row>
     <row r="158">
-      <c r="B158" s="26" t="n"/>
-      <c r="C158" s="35" t="inlineStr">
+      <c r="B158" s="12" t="n"/>
+      <c r="C158" s="23" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D158" s="35" t="n"/>
-      <c r="E158" s="35" t="n"/>
-      <c r="F158" s="35" t="n"/>
-      <c r="G158" s="35" t="n"/>
-      <c r="H158" s="35" t="n"/>
-      <c r="I158" s="35" t="n"/>
-      <c r="J158" s="35" t="n"/>
-      <c r="K158" s="35" t="n"/>
-      <c r="L158" s="26" t="n"/>
-      <c r="M158" s="26" t="n"/>
+      <c r="D158" s="23" t="n"/>
+      <c r="E158" s="23" t="n"/>
+      <c r="F158" s="23" t="n"/>
+      <c r="G158" s="23" t="n"/>
+      <c r="H158" s="23" t="n"/>
+      <c r="I158" s="23" t="n"/>
+      <c r="J158" s="23" t="n"/>
+      <c r="K158" s="23" t="n"/>
+      <c r="L158" s="12" t="n"/>
+      <c r="M158" s="12" t="n"/>
     </row>
     <row r="159">
-      <c r="B159" s="26" t="n"/>
-      <c r="C159" s="26" t="inlineStr">
+      <c r="B159" s="12" t="n"/>
+      <c r="C159" s="12" t="inlineStr">
         <is>
           <t>Гидроксид алюминия</t>
         </is>
       </c>
-      <c r="D159" s="26">
+      <c r="D159" s="12">
         <f>D151</f>
         <v/>
       </c>
-      <c r="E159" s="26">
+      <c r="E159" s="12">
         <f>E151</f>
         <v/>
       </c>
-      <c r="F159" s="26">
+      <c r="F159" s="12">
         <f>F151</f>
         <v/>
       </c>
-      <c r="G159" s="26">
+      <c r="G159" s="12">
         <f>G151</f>
         <v/>
       </c>
-      <c r="H159" s="26">
+      <c r="H159" s="12">
         <f>H151</f>
         <v/>
       </c>
-      <c r="I159" s="26">
+      <c r="I159" s="12">
         <f>I151</f>
         <v/>
       </c>
-      <c r="J159" s="26">
+      <c r="J159" s="12">
         <f>J151</f>
         <v/>
       </c>
-      <c r="K159" s="26">
+      <c r="K159" s="12">
         <f>SUM(D159:J159)</f>
         <v/>
       </c>
-      <c r="L159" s="26" t="n"/>
-      <c r="M159" s="26" t="n"/>
+      <c r="L159" s="12" t="n"/>
+      <c r="M159" s="12" t="n"/>
     </row>
     <row r="160">
-      <c r="B160" s="26" t="n"/>
-      <c r="C160" s="26" t="inlineStr">
+      <c r="B160" s="12" t="n"/>
+      <c r="C160" s="12" t="inlineStr">
         <is>
           <t>Содовый раствор</t>
         </is>
       </c>
-      <c r="D160" s="34">
+      <c r="D160" s="13">
         <f>K160*D152/K152</f>
         <v/>
       </c>
-      <c r="E160" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" s="36">
+      <c r="E160" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" s="16">
         <f>I160*44/62</f>
         <v/>
       </c>
-      <c r="H160" s="36">
+      <c r="H160" s="16">
         <f>H152*K160/K152</f>
         <v/>
       </c>
-      <c r="I160" s="36">
+      <c r="I160" s="16">
         <f>I152*K160/K152</f>
         <v/>
       </c>
-      <c r="J160" s="36">
+      <c r="J160" s="16">
         <f>K160-I160-H160-D160-G160</f>
         <v/>
       </c>
-      <c r="K160" s="26">
+      <c r="K160" s="12">
         <f>K151*'Исходные данные'!J102/(100-'Исходные данные'!J102)</f>
         <v/>
       </c>
-      <c r="L160" s="26" t="n"/>
-      <c r="M160" s="26" t="n"/>
+      <c r="L160" s="12" t="n"/>
+      <c r="M160" s="12" t="n"/>
     </row>
     <row r="161">
-      <c r="B161" s="26" t="n"/>
-      <c r="C161" s="26" t="inlineStr">
+      <c r="B161" s="12" t="n"/>
+      <c r="C161" s="12" t="inlineStr">
         <is>
           <t>Вода на промывку</t>
         </is>
       </c>
-      <c r="D161" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" s="26">
+      <c r="D161" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="12">
         <f>'Исходные данные'!L86</f>
         <v/>
       </c>
-      <c r="K161" s="26">
+      <c r="K161" s="12">
         <f>SUM(D161:J161)</f>
         <v/>
       </c>
-      <c r="L161" s="26" t="n"/>
-      <c r="M161" s="26" t="n"/>
+      <c r="L161" s="12" t="n"/>
+      <c r="M161" s="12" t="n"/>
     </row>
     <row r="162">
-      <c r="B162" s="26" t="n"/>
-      <c r="C162" s="26" t="inlineStr">
+      <c r="B162" s="12" t="n"/>
+      <c r="C162" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="D162" s="26">
+      <c r="D162" s="12">
         <f>SUM(D159:D161)</f>
         <v/>
       </c>
-      <c r="E162" s="26">
+      <c r="E162" s="12">
         <f>SUM(E159:E161)</f>
         <v/>
       </c>
-      <c r="F162" s="26">
+      <c r="F162" s="12">
         <f>SUM(F159:F161)</f>
         <v/>
       </c>
-      <c r="G162" s="26">
+      <c r="G162" s="12">
         <f>SUM(G159:G161)</f>
         <v/>
       </c>
-      <c r="H162" s="26">
+      <c r="H162" s="12">
         <f>SUM(H159:H161)</f>
         <v/>
       </c>
-      <c r="I162" s="26">
+      <c r="I162" s="12">
         <f>SUM(I159:I161)</f>
         <v/>
       </c>
-      <c r="J162" s="26">
+      <c r="J162" s="12">
         <f>SUM(J159:J161)</f>
         <v/>
       </c>
-      <c r="K162" s="26">
+      <c r="K162" s="12">
         <f>SUM(K159:K161)</f>
         <v/>
       </c>
-      <c r="L162" s="26" t="n"/>
-      <c r="M162" s="26" t="n"/>
+      <c r="L162" s="12" t="n"/>
+      <c r="M162" s="12" t="n"/>
     </row>
     <row r="163">
-      <c r="B163" s="26" t="n"/>
-      <c r="C163" s="26" t="inlineStr">
+      <c r="B163" s="12" t="n"/>
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>Получено, кг</t>
         </is>
       </c>
-      <c r="D163" s="26" t="n"/>
-      <c r="E163" s="26" t="n"/>
-      <c r="F163" s="26" t="n"/>
-      <c r="G163" s="26" t="n"/>
-      <c r="H163" s="26" t="n"/>
-      <c r="I163" s="26" t="n"/>
-      <c r="J163" s="26" t="n"/>
-      <c r="K163" s="26" t="n"/>
-      <c r="L163" s="26" t="n"/>
-      <c r="M163" s="26" t="n"/>
+      <c r="D163" s="12" t="n"/>
+      <c r="E163" s="12" t="n"/>
+      <c r="F163" s="12" t="n"/>
+      <c r="G163" s="12" t="n"/>
+      <c r="H163" s="12" t="n"/>
+      <c r="I163" s="12" t="n"/>
+      <c r="J163" s="12" t="n"/>
+      <c r="K163" s="12" t="n"/>
+      <c r="L163" s="12" t="n"/>
+      <c r="M163" s="12" t="n"/>
     </row>
     <row r="164">
-      <c r="B164" s="26" t="n"/>
-      <c r="C164" s="26" t="inlineStr">
+      <c r="B164" s="12" t="n"/>
+      <c r="C164" s="12" t="inlineStr">
         <is>
           <t>Отмытый гидроксид алюминия</t>
         </is>
       </c>
-      <c r="D164" s="26">
+      <c r="D164" s="12">
         <f>D159</f>
         <v/>
       </c>
-      <c r="E164" s="26">
+      <c r="E164" s="12">
         <f>E159</f>
         <v/>
       </c>
-      <c r="F164" s="26">
+      <c r="F164" s="12">
         <f>F159</f>
         <v/>
       </c>
-      <c r="G164" s="26">
+      <c r="G164" s="12">
         <f>G159</f>
         <v/>
       </c>
-      <c r="H164" s="26">
+      <c r="H164" s="12">
         <f>H159</f>
         <v/>
       </c>
-      <c r="I164" s="26">
+      <c r="I164" s="12">
         <f>I159</f>
         <v/>
       </c>
-      <c r="J164" s="26">
+      <c r="J164" s="12">
         <f>J159</f>
         <v/>
       </c>
-      <c r="K164" s="26">
+      <c r="K164" s="12">
         <f>SUM(D164:J164)</f>
         <v/>
       </c>
-      <c r="L164" s="26" t="n"/>
-      <c r="M164" s="26" t="n"/>
+      <c r="L164" s="12" t="n"/>
+      <c r="M164" s="12" t="n"/>
     </row>
     <row r="165">
-      <c r="B165" s="26" t="n"/>
-      <c r="C165" s="26" t="inlineStr">
+      <c r="B165" s="12" t="n"/>
+      <c r="C165" s="12" t="inlineStr">
         <is>
           <t>Промвода</t>
         </is>
       </c>
-      <c r="D165" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" s="26">
+      <c r="D165" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" s="12">
         <f>I165*44/62</f>
         <v/>
       </c>
-      <c r="H165" s="26">
+      <c r="H165" s="12">
         <f>'Исходные данные'!H46*0.04</f>
         <v/>
       </c>
-      <c r="I165" s="26">
+      <c r="I165" s="12">
         <f>'Исходные данные'!H46*0.96</f>
         <v/>
       </c>
-      <c r="J165" s="26">
+      <c r="J165" s="12">
         <f>K165-I165-H165-G165</f>
         <v/>
       </c>
-      <c r="K165" s="26">
+      <c r="K165" s="12">
         <f>K160</f>
         <v/>
       </c>
-      <c r="L165" s="26" t="n"/>
-      <c r="M165" s="26" t="n"/>
+      <c r="L165" s="12" t="n"/>
+      <c r="M165" s="12" t="n"/>
     </row>
     <row r="166">
-      <c r="B166" s="26" t="n"/>
-      <c r="C166" s="26" t="inlineStr">
+      <c r="B166" s="12" t="n"/>
+      <c r="C166" s="12" t="inlineStr">
         <is>
           <t>Промвода на выпарку</t>
         </is>
       </c>
-      <c r="D166" s="26">
+      <c r="D166" s="12">
         <f>D167-SUM(D164:D165)</f>
         <v/>
       </c>
-      <c r="E166" s="26">
+      <c r="E166" s="12">
         <f>E167-SUM(E164:E165)</f>
         <v/>
       </c>
-      <c r="F166" s="26">
+      <c r="F166" s="12">
         <f>F167-SUM(F164:F165)</f>
         <v/>
       </c>
-      <c r="G166" s="26">
+      <c r="G166" s="12">
         <f>G167-SUM(G164:G165)</f>
         <v/>
       </c>
-      <c r="H166" s="26">
+      <c r="H166" s="12">
         <f>H167-SUM(H164:H165)</f>
         <v/>
       </c>
-      <c r="I166" s="26">
+      <c r="I166" s="12">
         <f>I167-SUM(I164:I165)</f>
         <v/>
       </c>
-      <c r="J166" s="26">
+      <c r="J166" s="12">
         <f>J167-SUM(J164:J165)</f>
         <v/>
       </c>
-      <c r="K166" s="26">
+      <c r="K166" s="12">
         <f>SUM(D166:J166)</f>
         <v/>
       </c>
-      <c r="L166" s="26" t="n"/>
-      <c r="M166" s="26" t="n"/>
+      <c r="L166" s="12" t="n"/>
+      <c r="M166" s="12" t="n"/>
     </row>
     <row r="167">
-      <c r="B167" s="26" t="n"/>
-      <c r="C167" s="26" t="inlineStr">
+      <c r="B167" s="12" t="n"/>
+      <c r="C167" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="D167" s="26">
+      <c r="D167" s="12">
         <f>D162</f>
         <v/>
       </c>
-      <c r="E167" s="26">
+      <c r="E167" s="12">
         <f>E162</f>
         <v/>
       </c>
-      <c r="F167" s="26">
+      <c r="F167" s="12">
         <f>F162</f>
         <v/>
       </c>
-      <c r="G167" s="26">
+      <c r="G167" s="12">
         <f>G162</f>
         <v/>
       </c>
-      <c r="H167" s="26">
+      <c r="H167" s="12">
         <f>H162</f>
         <v/>
       </c>
-      <c r="I167" s="26">
+      <c r="I167" s="12">
         <f>I162</f>
         <v/>
       </c>
-      <c r="J167" s="26">
+      <c r="J167" s="12">
         <f>J162</f>
         <v/>
       </c>
-      <c r="K167" s="26">
+      <c r="K167" s="12">
         <f>SUM(K164:K166)</f>
         <v/>
       </c>
-      <c r="L167" s="26" t="n"/>
-      <c r="M167" s="26" t="n"/>
+      <c r="L167" s="12" t="n"/>
+      <c r="M167" s="12" t="n"/>
     </row>
     <row r="168">
-      <c r="B168" s="26" t="n"/>
-      <c r="C168" s="26" t="n"/>
-      <c r="D168" s="26" t="n"/>
-      <c r="E168" s="26" t="n"/>
-      <c r="F168" s="26" t="n"/>
-      <c r="G168" s="26" t="n"/>
-      <c r="H168" s="26" t="n"/>
-      <c r="I168" s="26" t="n"/>
-      <c r="J168" s="26" t="n"/>
-      <c r="K168" s="26" t="n"/>
-      <c r="L168" s="26" t="n"/>
-      <c r="M168" s="26" t="n"/>
+      <c r="B168" s="12" t="n"/>
+      <c r="C168" s="12" t="n"/>
+      <c r="D168" s="12" t="n"/>
+      <c r="E168" s="12" t="n"/>
+      <c r="F168" s="12" t="n"/>
+      <c r="G168" s="12" t="n"/>
+      <c r="H168" s="12" t="n"/>
+      <c r="I168" s="12" t="n"/>
+      <c r="J168" s="12" t="n"/>
+      <c r="K168" s="12" t="n"/>
+      <c r="L168" s="12" t="n"/>
+      <c r="M168" s="12" t="n"/>
     </row>
     <row r="169">
-      <c r="B169" s="26" t="n"/>
-      <c r="C169" s="26" t="n"/>
-      <c r="D169" s="26" t="n"/>
-      <c r="E169" s="26" t="n"/>
-      <c r="F169" s="26" t="n"/>
-      <c r="G169" s="26" t="n"/>
-      <c r="H169" s="26" t="n"/>
-      <c r="I169" s="26" t="n"/>
-      <c r="J169" s="26" t="n"/>
-      <c r="K169" s="26" t="n"/>
-      <c r="L169" s="26" t="n"/>
-      <c r="M169" s="26" t="n"/>
+      <c r="B169" s="12" t="n"/>
+      <c r="C169" s="12" t="n"/>
+      <c r="D169" s="12" t="n"/>
+      <c r="E169" s="12" t="n"/>
+      <c r="F169" s="12" t="n"/>
+      <c r="G169" s="12" t="n"/>
+      <c r="H169" s="12" t="n"/>
+      <c r="I169" s="12" t="n"/>
+      <c r="J169" s="12" t="n"/>
+      <c r="K169" s="12" t="n"/>
+      <c r="L169" s="12" t="n"/>
+      <c r="M169" s="12" t="n"/>
     </row>
     <row r="170">
-      <c r="B170" s="26" t="n"/>
-      <c r="C170" s="26" t="inlineStr">
+      <c r="B170" s="12" t="n"/>
+      <c r="C170" s="12" t="inlineStr">
         <is>
           <t>Таблица 24</t>
         </is>
       </c>
-      <c r="D170" s="26" t="n"/>
-      <c r="E170" s="26" t="n"/>
-      <c r="F170" s="26" t="n"/>
-      <c r="G170" s="26" t="n"/>
-      <c r="H170" s="26" t="n"/>
-      <c r="I170" s="26" t="n"/>
-      <c r="J170" s="26" t="n"/>
-      <c r="K170" s="26" t="n"/>
-      <c r="L170" s="26" t="n"/>
-      <c r="M170" s="26" t="n"/>
+      <c r="D170" s="12" t="n"/>
+      <c r="E170" s="12" t="n"/>
+      <c r="F170" s="12" t="n"/>
+      <c r="G170" s="12" t="n"/>
+      <c r="H170" s="12" t="n"/>
+      <c r="I170" s="12" t="n"/>
+      <c r="J170" s="12" t="n"/>
+      <c r="K170" s="12" t="n"/>
+      <c r="L170" s="12" t="n"/>
+      <c r="M170" s="12" t="n"/>
     </row>
     <row r="171">
-      <c r="B171" s="26" t="n"/>
-      <c r="C171" s="26" t="n"/>
-      <c r="D171" s="26" t="inlineStr">
+      <c r="B171" s="12" t="n"/>
+      <c r="C171" s="12" t="n"/>
+      <c r="D171" s="12" t="inlineStr">
         <is>
           <t>Al2O3</t>
         </is>
       </c>
-      <c r="E171" s="26" t="inlineStr">
+      <c r="E171" s="12" t="inlineStr">
         <is>
           <t>SiO2</t>
         </is>
       </c>
-      <c r="F171" s="26" t="inlineStr">
+      <c r="F171" s="12" t="inlineStr">
         <is>
           <t>CaO</t>
         </is>
       </c>
-      <c r="G171" s="26" t="inlineStr">
+      <c r="G171" s="12" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H171" s="26" t="inlineStr">
+      <c r="H171" s="12" t="inlineStr">
         <is>
           <t>Na2Oобщ</t>
         </is>
       </c>
-      <c r="I171" s="26" t="inlineStr">
+      <c r="I171" s="12" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="J171" s="26" t="inlineStr">
+      <c r="J171" s="12" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="L171" s="26" t="n"/>
-      <c r="M171" s="26" t="n"/>
+      <c r="L171" s="12" t="n"/>
+      <c r="M171" s="12" t="n"/>
     </row>
     <row r="172">
-      <c r="B172" s="26" t="n"/>
-      <c r="C172" s="35" t="inlineStr">
+      <c r="B172" s="12" t="n"/>
+      <c r="C172" s="23" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D172" s="35" t="n"/>
-      <c r="E172" s="35" t="n"/>
-      <c r="F172" s="35" t="n"/>
-      <c r="G172" s="35" t="n"/>
-      <c r="H172" s="35" t="n"/>
-      <c r="I172" s="35" t="n"/>
-      <c r="J172" s="35" t="n"/>
-      <c r="L172" s="26" t="n"/>
-      <c r="M172" s="26" t="n"/>
+      <c r="D172" s="23" t="n"/>
+      <c r="E172" s="23" t="n"/>
+      <c r="F172" s="23" t="n"/>
+      <c r="G172" s="23" t="n"/>
+      <c r="H172" s="23" t="n"/>
+      <c r="I172" s="23" t="n"/>
+      <c r="J172" s="23" t="n"/>
+      <c r="L172" s="12" t="n"/>
+      <c r="M172" s="12" t="n"/>
     </row>
     <row r="173">
-      <c r="B173" s="26" t="n"/>
-      <c r="C173" s="26" t="inlineStr">
+      <c r="B173" s="12" t="n"/>
+      <c r="C173" s="12" t="inlineStr">
         <is>
           <t>Гидроксид алюминия</t>
         </is>
       </c>
-      <c r="D173" s="26">
+      <c r="D173" s="12">
         <f>D164</f>
         <v/>
       </c>
-      <c r="E173" s="26">
+      <c r="E173" s="12">
         <f>E164</f>
         <v/>
       </c>
-      <c r="F173" s="26">
+      <c r="F173" s="12">
         <f>F164</f>
         <v/>
       </c>
-      <c r="G173" s="26">
+      <c r="G173" s="12">
         <f>G164</f>
         <v/>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" s="26">
+      <c r="I173" s="12">
         <f>J164</f>
         <v/>
       </c>
-      <c r="J173" s="26">
+      <c r="J173" s="12">
         <f>SUM(D173:I173)</f>
         <v/>
       </c>
-      <c r="L173" s="26" t="n"/>
-      <c r="M173" s="26" t="n"/>
+      <c r="L173" s="12" t="n"/>
+      <c r="M173" s="12" t="n"/>
     </row>
     <row r="174">
-      <c r="B174" s="26" t="n"/>
-      <c r="C174" s="26" t="inlineStr">
+      <c r="B174" s="12" t="n"/>
+      <c r="C174" s="12" t="inlineStr">
         <is>
           <t>Промвода</t>
         </is>
       </c>
-      <c r="D174" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" s="26">
+      <c r="D174" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" s="12">
         <f>G165</f>
         <v/>
       </c>
-      <c r="H174" s="26">
+      <c r="H174" s="12">
         <f>'Исходные данные'!H46</f>
         <v/>
       </c>
-      <c r="I174" s="26">
+      <c r="I174" s="12">
         <f>J165</f>
         <v/>
       </c>
-      <c r="J174" s="26">
+      <c r="J174" s="12">
         <f>SUM(D174:I174)</f>
         <v/>
       </c>
-      <c r="L174" s="26" t="n"/>
-      <c r="M174" s="26" t="n"/>
+      <c r="L174" s="12" t="n"/>
+      <c r="M174" s="12" t="n"/>
     </row>
     <row r="175">
-      <c r="B175" s="26" t="n"/>
-      <c r="C175" s="26" t="inlineStr">
+      <c r="B175" s="12" t="n"/>
+      <c r="C175" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="D175" s="26">
+      <c r="D175" s="12">
         <f>SUM(D173:D174)</f>
         <v/>
       </c>
-      <c r="E175" s="26">
+      <c r="E175" s="12">
         <f>SUM(E173:E174)</f>
         <v/>
       </c>
-      <c r="F175" s="26">
+      <c r="F175" s="12">
         <f>SUM(F173:F174)</f>
         <v/>
       </c>
-      <c r="G175" s="26">
+      <c r="G175" s="12">
         <f>SUM(G173:G174)</f>
         <v/>
       </c>
-      <c r="H175" s="26">
+      <c r="H175" s="12">
         <f>SUM(H173:H174)</f>
         <v/>
       </c>
-      <c r="I175" s="26">
+      <c r="I175" s="12">
         <f>SUM(I173:I174)</f>
         <v/>
       </c>
-      <c r="J175" s="26">
+      <c r="J175" s="12">
         <f>SUM(J173:J174)</f>
         <v/>
       </c>
-      <c r="L175" s="26" t="n"/>
-      <c r="M175" s="26" t="n"/>
+      <c r="L175" s="12" t="n"/>
+      <c r="M175" s="12" t="n"/>
     </row>
     <row r="176">
-      <c r="B176" s="26" t="n"/>
-      <c r="C176" s="26" t="inlineStr">
+      <c r="B176" s="12" t="n"/>
+      <c r="C176" s="12" t="inlineStr">
         <is>
           <t>Получено, кг</t>
         </is>
       </c>
-      <c r="D176" s="26" t="n"/>
-      <c r="E176" s="26" t="n"/>
-      <c r="F176" s="26" t="n"/>
-      <c r="G176" s="26" t="n"/>
-      <c r="H176" s="26" t="n"/>
-      <c r="I176" s="26" t="n"/>
-      <c r="J176" s="26" t="n"/>
-      <c r="L176" s="26" t="n"/>
-      <c r="M176" s="26" t="n"/>
+      <c r="D176" s="12" t="n"/>
+      <c r="E176" s="12" t="n"/>
+      <c r="F176" s="12" t="n"/>
+      <c r="G176" s="12" t="n"/>
+      <c r="H176" s="12" t="n"/>
+      <c r="I176" s="12" t="n"/>
+      <c r="J176" s="12" t="n"/>
+      <c r="L176" s="12" t="n"/>
+      <c r="M176" s="12" t="n"/>
     </row>
     <row r="177">
-      <c r="B177" s="26" t="n"/>
-      <c r="C177" s="26" t="inlineStr">
+      <c r="B177" s="12" t="n"/>
+      <c r="C177" s="12" t="inlineStr">
         <is>
           <t>Глинозем</t>
         </is>
       </c>
-      <c r="D177" s="26">
+      <c r="D177" s="12">
         <f>'Исходные данные'!F30</f>
         <v/>
       </c>
-      <c r="E177" s="26">
+      <c r="E177" s="12">
         <f>E173</f>
         <v/>
       </c>
-      <c r="F177" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" s="26">
+      <c r="F177" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" s="12">
         <f>H174-H178</f>
         <v/>
       </c>
-      <c r="I177" s="26">
+      <c r="I177" s="12">
         <f>J177-H177-E177-D177</f>
         <v/>
       </c>
-      <c r="J177" s="26" t="n">
+      <c r="J177" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="L177" s="26" t="n"/>
-      <c r="M177" s="26" t="n"/>
+      <c r="L177" s="12" t="n"/>
+      <c r="M177" s="12" t="n"/>
     </row>
     <row r="178">
-      <c r="B178" s="26" t="n"/>
-      <c r="C178" s="26" t="inlineStr">
+      <c r="B178" s="12" t="n"/>
+      <c r="C178" s="12" t="inlineStr">
         <is>
           <t>Потери</t>
         </is>
       </c>
-      <c r="D178" s="26">
+      <c r="D178" s="12">
         <f>'Исходные данные'!F46</f>
         <v/>
       </c>
-      <c r="E178" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" s="26">
+      <c r="E178" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" s="12">
         <f>G165</f>
         <v/>
       </c>
@@ -8452,747 +7829,747 @@
         <f>0.25</f>
         <v/>
       </c>
-      <c r="I178" s="26">
+      <c r="I178" s="12">
         <f>I179-I177</f>
         <v/>
       </c>
-      <c r="J178" s="26">
+      <c r="J178" s="12">
         <f>SUM(D178:I178)</f>
         <v/>
       </c>
-      <c r="L178" s="26" t="n"/>
-      <c r="M178" s="26" t="n"/>
+      <c r="L178" s="12" t="n"/>
+      <c r="M178" s="12" t="n"/>
     </row>
     <row r="179">
-      <c r="B179" s="26" t="n"/>
-      <c r="C179" s="26" t="inlineStr">
+      <c r="B179" s="12" t="n"/>
+      <c r="C179" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="D179" s="26">
+      <c r="D179" s="12">
         <f>D175</f>
         <v/>
       </c>
-      <c r="E179" s="26">
+      <c r="E179" s="12">
         <f>E175</f>
         <v/>
       </c>
-      <c r="F179" s="26">
+      <c r="F179" s="12">
         <f>F175</f>
         <v/>
       </c>
-      <c r="G179" s="26">
+      <c r="G179" s="12">
         <f>G175</f>
         <v/>
       </c>
-      <c r="H179" s="26">
+      <c r="H179" s="12">
         <f>H175</f>
         <v/>
       </c>
-      <c r="I179" s="26">
+      <c r="I179" s="12">
         <f>I175</f>
         <v/>
       </c>
-      <c r="J179" s="26">
+      <c r="J179" s="12">
         <f>SUM(D179:I179)</f>
         <v/>
       </c>
-      <c r="L179" s="26" t="n"/>
-      <c r="M179" s="26" t="n"/>
+      <c r="L179" s="12" t="n"/>
+      <c r="M179" s="12" t="n"/>
     </row>
     <row r="180">
-      <c r="B180" s="26" t="n"/>
-      <c r="C180" s="26" t="n"/>
-      <c r="D180" s="26" t="n"/>
-      <c r="E180" s="26" t="n"/>
-      <c r="F180" s="26" t="n"/>
-      <c r="G180" s="26" t="n"/>
-      <c r="H180" s="26" t="n"/>
-      <c r="I180" s="26" t="n"/>
-      <c r="J180" s="26" t="n"/>
-      <c r="K180" s="26" t="n"/>
-      <c r="L180" s="26" t="n"/>
-      <c r="M180" s="26" t="n"/>
+      <c r="B180" s="12" t="n"/>
+      <c r="C180" s="12" t="n"/>
+      <c r="D180" s="12" t="n"/>
+      <c r="E180" s="12" t="n"/>
+      <c r="F180" s="12" t="n"/>
+      <c r="G180" s="12" t="n"/>
+      <c r="H180" s="12" t="n"/>
+      <c r="I180" s="12" t="n"/>
+      <c r="J180" s="12" t="n"/>
+      <c r="K180" s="12" t="n"/>
+      <c r="L180" s="12" t="n"/>
+      <c r="M180" s="12" t="n"/>
     </row>
     <row r="181">
-      <c r="B181" s="26" t="n"/>
-      <c r="C181" s="26" t="n"/>
-      <c r="D181" s="26" t="n"/>
-      <c r="E181" s="26" t="n"/>
-      <c r="F181" s="26" t="n"/>
-      <c r="G181" s="26" t="n"/>
-      <c r="H181" s="26" t="n"/>
-      <c r="I181" s="26" t="n"/>
-      <c r="J181" s="26" t="n"/>
-      <c r="K181" s="26" t="n"/>
-      <c r="L181" s="26" t="n"/>
-      <c r="M181" s="26" t="n"/>
+      <c r="B181" s="12" t="n"/>
+      <c r="C181" s="12" t="n"/>
+      <c r="D181" s="12" t="n"/>
+      <c r="E181" s="12" t="n"/>
+      <c r="F181" s="12" t="n"/>
+      <c r="G181" s="12" t="n"/>
+      <c r="H181" s="12" t="n"/>
+      <c r="I181" s="12" t="n"/>
+      <c r="J181" s="12" t="n"/>
+      <c r="K181" s="12" t="n"/>
+      <c r="L181" s="12" t="n"/>
+      <c r="M181" s="12" t="n"/>
     </row>
     <row r="182">
-      <c r="B182" s="26" t="n"/>
-      <c r="C182" s="26" t="inlineStr">
+      <c r="B182" s="12" t="n"/>
+      <c r="C182" s="12" t="inlineStr">
         <is>
           <t>Таблица 25</t>
         </is>
       </c>
-      <c r="D182" s="26" t="n"/>
-      <c r="E182" s="26" t="n"/>
-      <c r="F182" s="26" t="n"/>
-      <c r="G182" s="26" t="n"/>
-      <c r="H182" s="26" t="n"/>
-      <c r="I182" s="26" t="n"/>
-      <c r="J182" s="26" t="n"/>
-      <c r="K182" s="26" t="n"/>
-      <c r="L182" s="26" t="n"/>
-      <c r="M182" s="26" t="n"/>
+      <c r="D182" s="12" t="n"/>
+      <c r="E182" s="12" t="n"/>
+      <c r="F182" s="12" t="n"/>
+      <c r="G182" s="12" t="n"/>
+      <c r="H182" s="12" t="n"/>
+      <c r="I182" s="12" t="n"/>
+      <c r="J182" s="12" t="n"/>
+      <c r="K182" s="12" t="n"/>
+      <c r="L182" s="12" t="n"/>
+      <c r="M182" s="12" t="n"/>
     </row>
     <row r="183">
-      <c r="B183" s="26" t="n"/>
-      <c r="C183" s="26" t="n"/>
-      <c r="D183" s="35" t="inlineStr">
+      <c r="B183" s="12" t="n"/>
+      <c r="C183" s="12" t="n"/>
+      <c r="D183" s="23" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="E183" s="26" t="inlineStr">
+      <c r="E183" s="12" t="inlineStr">
         <is>
           <t>Регенерация</t>
         </is>
       </c>
-      <c r="F183" s="26" t="inlineStr">
+      <c r="F183" s="12" t="inlineStr">
         <is>
           <t>Содовый раствор</t>
         </is>
       </c>
-      <c r="G183" s="26" t="inlineStr">
+      <c r="G183" s="12" t="inlineStr">
         <is>
           <t>На выпарку</t>
         </is>
       </c>
-      <c r="H183" s="26" t="n"/>
-      <c r="I183" s="26" t="n"/>
-      <c r="J183" s="26" t="n"/>
-      <c r="K183" s="26" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="H183" s="12" t="n"/>
+      <c r="I183" s="12" t="n"/>
+      <c r="J183" s="12" t="n"/>
+      <c r="K183" s="12" t="n"/>
+      <c r="L183" s="12" t="n"/>
     </row>
     <row r="184">
-      <c r="B184" s="26" t="n"/>
-      <c r="C184" s="26" t="inlineStr">
+      <c r="B184" s="12" t="n"/>
+      <c r="C184" s="12" t="inlineStr">
         <is>
           <t>Al2O3</t>
         </is>
       </c>
-      <c r="D184" s="35">
+      <c r="D184" s="23">
         <f>D152</f>
         <v/>
       </c>
-      <c r="E184" s="26">
+      <c r="E184" s="12">
         <f>'Выщелачивание спека'!B17</f>
         <v/>
       </c>
-      <c r="F184" s="36">
+      <c r="F184" s="16">
         <f>D160</f>
         <v/>
       </c>
-      <c r="G184" s="35">
+      <c r="G184" s="23">
         <f>D184-E184-F184</f>
         <v/>
       </c>
-      <c r="H184" s="26" t="n"/>
-      <c r="I184" s="26" t="n"/>
-      <c r="J184" s="26" t="n"/>
-      <c r="K184" s="26" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="H184" s="12" t="n"/>
+      <c r="I184" s="12" t="n"/>
+      <c r="J184" s="12" t="n"/>
+      <c r="K184" s="12" t="n"/>
+      <c r="L184" s="12" t="n"/>
     </row>
     <row r="185">
-      <c r="B185" s="26" t="n"/>
-      <c r="C185" s="26" t="inlineStr">
+      <c r="B185" s="12" t="n"/>
+      <c r="C185" s="12" t="inlineStr">
         <is>
           <t>Na2Oк</t>
         </is>
       </c>
-      <c r="D185" s="35">
+      <c r="D185" s="23">
         <f>H152</f>
         <v/>
       </c>
-      <c r="E185" s="26">
+      <c r="E185" s="12">
         <f>'Выщелачивание спека'!C17</f>
         <v/>
       </c>
-      <c r="F185" s="36">
+      <c r="F185" s="16">
         <f>H160</f>
         <v/>
       </c>
-      <c r="G185" s="35">
+      <c r="G185" s="23">
         <f>D185-E185-F185</f>
         <v/>
       </c>
-      <c r="H185" s="26" t="n"/>
-      <c r="I185" s="26" t="n"/>
-      <c r="J185" s="26" t="n"/>
-      <c r="K185" s="26" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="H185" s="12" t="n"/>
+      <c r="I185" s="12" t="n"/>
+      <c r="J185" s="12" t="n"/>
+      <c r="K185" s="12" t="n"/>
+      <c r="L185" s="12" t="n"/>
     </row>
     <row r="186">
-      <c r="B186" s="26" t="n"/>
-      <c r="C186" s="26" t="inlineStr">
+      <c r="B186" s="12" t="n"/>
+      <c r="C186" s="12" t="inlineStr">
         <is>
           <t>Na2Oy</t>
         </is>
       </c>
-      <c r="D186" s="35">
+      <c r="D186" s="23">
         <f>I152</f>
         <v/>
       </c>
-      <c r="E186" s="26">
+      <c r="E186" s="12">
         <f>'Выщелачивание спека'!D17</f>
         <v/>
       </c>
-      <c r="F186" s="36">
+      <c r="F186" s="16">
         <f>I160</f>
         <v/>
       </c>
-      <c r="G186" s="35">
+      <c r="G186" s="23">
         <f>D186-E186-F186</f>
         <v/>
       </c>
-      <c r="H186" s="26" t="n"/>
-      <c r="I186" s="26" t="n"/>
-      <c r="J186" s="26" t="n"/>
-      <c r="K186" s="26" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="H186" s="12" t="n"/>
+      <c r="I186" s="12" t="n"/>
+      <c r="J186" s="12" t="n"/>
+      <c r="K186" s="12" t="n"/>
+      <c r="L186" s="12" t="n"/>
     </row>
     <row r="187">
-      <c r="B187" s="26" t="n"/>
-      <c r="C187" s="26" t="inlineStr">
+      <c r="B187" s="12" t="n"/>
+      <c r="C187" s="12" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="D187" s="35">
+      <c r="D187" s="23">
         <f>G152</f>
         <v/>
       </c>
-      <c r="E187" s="26">
+      <c r="E187" s="12">
         <f>'Выщелачивание спека'!E17</f>
         <v/>
       </c>
-      <c r="F187" s="36">
+      <c r="F187" s="16">
         <f>G160</f>
         <v/>
       </c>
-      <c r="G187" s="35">
+      <c r="G187" s="23">
         <f>D187-E187-F187</f>
         <v/>
       </c>
-      <c r="H187" s="26" t="n"/>
-      <c r="I187" s="26" t="n"/>
-      <c r="J187" s="26" t="n"/>
-      <c r="K187" s="26" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="H187" s="12" t="n"/>
+      <c r="I187" s="12" t="n"/>
+      <c r="J187" s="12" t="n"/>
+      <c r="K187" s="12" t="n"/>
+      <c r="L187" s="12" t="n"/>
     </row>
     <row r="188">
-      <c r="B188" s="26" t="n"/>
-      <c r="C188" s="26" t="inlineStr">
+      <c r="B188" s="12" t="n"/>
+      <c r="C188" s="12" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="D188" s="35">
+      <c r="D188" s="23">
         <f>J152</f>
         <v/>
       </c>
-      <c r="E188" s="26">
+      <c r="E188" s="12">
         <f>'Выщелачивание спека'!F17</f>
         <v/>
       </c>
-      <c r="F188" s="36">
+      <c r="F188" s="16">
         <f>J160</f>
         <v/>
       </c>
-      <c r="G188" s="35">
+      <c r="G188" s="23">
         <f>D188-E188-F188</f>
         <v/>
       </c>
-      <c r="H188" s="26" t="n"/>
-      <c r="I188" s="26" t="n"/>
-      <c r="J188" s="26" t="n"/>
-      <c r="K188" s="26" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="H188" s="12" t="n"/>
+      <c r="I188" s="12" t="n"/>
+      <c r="J188" s="12" t="n"/>
+      <c r="K188" s="12" t="n"/>
+      <c r="L188" s="12" t="n"/>
     </row>
     <row r="189">
-      <c r="B189" s="26" t="n"/>
-      <c r="C189" s="26" t="inlineStr">
+      <c r="B189" s="12" t="n"/>
+      <c r="C189" s="12" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="D189" s="35">
+      <c r="D189" s="23">
         <f>SUM(D184:D188)</f>
         <v/>
       </c>
-      <c r="E189" s="35">
+      <c r="E189" s="23">
         <f>SUM(E184:E188)</f>
         <v/>
       </c>
-      <c r="F189" s="35">
+      <c r="F189" s="23">
         <f>SUM(F184:F188)</f>
         <v/>
       </c>
-      <c r="G189" s="35">
+      <c r="G189" s="23">
         <f>D189-E189-F189</f>
         <v/>
       </c>
-      <c r="H189" s="26" t="n"/>
-      <c r="I189" s="26" t="n"/>
-      <c r="J189" s="26" t="n"/>
-      <c r="K189" s="26" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="H189" s="12" t="n"/>
+      <c r="I189" s="12" t="n"/>
+      <c r="J189" s="12" t="n"/>
+      <c r="K189" s="12" t="n"/>
+      <c r="L189" s="12" t="n"/>
     </row>
     <row r="190">
-      <c r="B190" s="26" t="n"/>
-      <c r="D190" s="35" t="n"/>
-      <c r="E190" s="26" t="n"/>
-      <c r="F190" s="26" t="n"/>
-      <c r="G190" s="26" t="n"/>
-      <c r="H190" s="26" t="n"/>
-      <c r="I190" s="26" t="n"/>
-      <c r="J190" s="26" t="n"/>
-      <c r="K190" s="26" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="B190" s="12" t="n"/>
+      <c r="D190" s="23" t="n"/>
+      <c r="E190" s="12" t="n"/>
+      <c r="F190" s="12" t="n"/>
+      <c r="G190" s="12" t="n"/>
+      <c r="H190" s="12" t="n"/>
+      <c r="I190" s="12" t="n"/>
+      <c r="J190" s="12" t="n"/>
+      <c r="K190" s="12" t="n"/>
+      <c r="L190" s="12" t="n"/>
     </row>
     <row r="191">
-      <c r="B191" s="26" t="n"/>
-      <c r="D191" s="35" t="n"/>
-      <c r="E191" s="26" t="n"/>
-      <c r="F191" s="26" t="n"/>
-      <c r="G191" s="26" t="n"/>
-      <c r="H191" s="26" t="n"/>
-      <c r="I191" s="26" t="n"/>
-      <c r="J191" s="26" t="n"/>
-      <c r="K191" s="26" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="B191" s="12" t="n"/>
+      <c r="D191" s="23" t="n"/>
+      <c r="E191" s="12" t="n"/>
+      <c r="F191" s="12" t="n"/>
+      <c r="G191" s="12" t="n"/>
+      <c r="H191" s="12" t="n"/>
+      <c r="I191" s="12" t="n"/>
+      <c r="J191" s="12" t="n"/>
+      <c r="K191" s="12" t="n"/>
+      <c r="L191" s="12" t="n"/>
     </row>
     <row r="192">
-      <c r="B192" s="26" t="n"/>
-      <c r="C192" s="26" t="n"/>
-      <c r="D192" s="26" t="n"/>
-      <c r="E192" s="26" t="n"/>
-      <c r="F192" s="26" t="n"/>
-      <c r="G192" s="26" t="n"/>
-      <c r="H192" s="26" t="n"/>
-      <c r="I192" s="26" t="n"/>
-      <c r="J192" s="26" t="n"/>
-      <c r="K192" s="26" t="n"/>
-      <c r="L192" s="26" t="n"/>
-      <c r="M192" s="26" t="n"/>
+      <c r="B192" s="12" t="n"/>
+      <c r="C192" s="12" t="n"/>
+      <c r="D192" s="12" t="n"/>
+      <c r="E192" s="12" t="n"/>
+      <c r="F192" s="12" t="n"/>
+      <c r="G192" s="12" t="n"/>
+      <c r="H192" s="12" t="n"/>
+      <c r="I192" s="12" t="n"/>
+      <c r="J192" s="12" t="n"/>
+      <c r="K192" s="12" t="n"/>
+      <c r="L192" s="12" t="n"/>
+      <c r="M192" s="12" t="n"/>
     </row>
     <row r="193">
-      <c r="B193" s="26" t="n"/>
-      <c r="C193" s="26" t="n"/>
-      <c r="D193" s="26" t="n"/>
-      <c r="E193" s="26" t="n"/>
-      <c r="F193" s="26" t="n"/>
-      <c r="G193" s="26" t="n"/>
-      <c r="H193" s="26" t="n"/>
-      <c r="I193" s="26" t="n"/>
-      <c r="J193" s="26" t="n"/>
-      <c r="K193" s="26" t="n"/>
-      <c r="L193" s="26" t="n"/>
-      <c r="M193" s="26" t="n"/>
+      <c r="B193" s="12" t="n"/>
+      <c r="C193" s="12" t="n"/>
+      <c r="D193" s="12" t="n"/>
+      <c r="E193" s="12" t="n"/>
+      <c r="F193" s="12" t="n"/>
+      <c r="G193" s="12" t="n"/>
+      <c r="H193" s="12" t="n"/>
+      <c r="I193" s="12" t="n"/>
+      <c r="J193" s="12" t="n"/>
+      <c r="K193" s="12" t="n"/>
+      <c r="L193" s="12" t="n"/>
+      <c r="M193" s="12" t="n"/>
     </row>
     <row r="194">
-      <c r="B194" s="26" t="n"/>
-      <c r="C194" s="26" t="n"/>
-      <c r="D194" s="26" t="n"/>
-      <c r="E194" s="26" t="n"/>
-      <c r="F194" s="26" t="n"/>
-      <c r="G194" s="26" t="n"/>
-      <c r="H194" s="26" t="n"/>
-      <c r="I194" s="26" t="n"/>
-      <c r="J194" s="26" t="n"/>
-      <c r="K194" s="26" t="n"/>
-      <c r="L194" s="26" t="n"/>
-      <c r="M194" s="26" t="n"/>
+      <c r="B194" s="12" t="n"/>
+      <c r="C194" s="12" t="n"/>
+      <c r="D194" s="12" t="n"/>
+      <c r="E194" s="12" t="n"/>
+      <c r="F194" s="12" t="n"/>
+      <c r="G194" s="12" t="n"/>
+      <c r="H194" s="12" t="n"/>
+      <c r="I194" s="12" t="n"/>
+      <c r="J194" s="12" t="n"/>
+      <c r="K194" s="12" t="n"/>
+      <c r="L194" s="12" t="n"/>
+      <c r="M194" s="12" t="n"/>
     </row>
     <row r="195">
-      <c r="B195" s="26" t="n"/>
-      <c r="C195" s="26" t="n"/>
-      <c r="D195" s="26" t="n"/>
-      <c r="E195" s="26" t="n"/>
-      <c r="F195" s="26" t="n"/>
-      <c r="G195" s="26" t="n"/>
-      <c r="H195" s="26" t="n"/>
-      <c r="I195" s="26" t="n"/>
-      <c r="J195" s="26" t="n"/>
-      <c r="K195" s="26" t="n"/>
-      <c r="L195" s="26" t="n"/>
-      <c r="M195" s="26" t="n"/>
+      <c r="B195" s="12" t="n"/>
+      <c r="C195" s="12" t="n"/>
+      <c r="D195" s="12" t="n"/>
+      <c r="E195" s="12" t="n"/>
+      <c r="F195" s="12" t="n"/>
+      <c r="G195" s="12" t="n"/>
+      <c r="H195" s="12" t="n"/>
+      <c r="I195" s="12" t="n"/>
+      <c r="J195" s="12" t="n"/>
+      <c r="K195" s="12" t="n"/>
+      <c r="L195" s="12" t="n"/>
+      <c r="M195" s="12" t="n"/>
     </row>
     <row r="196">
-      <c r="B196" s="26" t="n"/>
-      <c r="C196" s="26" t="inlineStr">
+      <c r="B196" s="12" t="n"/>
+      <c r="C196" s="12" t="inlineStr">
         <is>
           <t>Таблица 26</t>
         </is>
       </c>
-      <c r="D196" s="26" t="n"/>
-      <c r="E196" s="26" t="n"/>
-      <c r="F196" s="26" t="n"/>
-      <c r="G196" s="26" t="n"/>
-      <c r="H196" s="26" t="n"/>
-      <c r="I196" s="26" t="n"/>
-      <c r="J196" s="26" t="n"/>
-      <c r="K196" s="26" t="n"/>
-      <c r="L196" s="26" t="n"/>
-      <c r="M196" s="26" t="n"/>
+      <c r="D196" s="12" t="n"/>
+      <c r="E196" s="12" t="n"/>
+      <c r="F196" s="12" t="n"/>
+      <c r="G196" s="12" t="n"/>
+      <c r="H196" s="12" t="n"/>
+      <c r="I196" s="12" t="n"/>
+      <c r="J196" s="12" t="n"/>
+      <c r="K196" s="12" t="n"/>
+      <c r="L196" s="12" t="n"/>
+      <c r="M196" s="12" t="n"/>
     </row>
     <row r="197">
-      <c r="B197" s="26" t="n"/>
-      <c r="C197" s="26" t="n"/>
-      <c r="D197" s="26" t="inlineStr">
+      <c r="B197" s="12" t="n"/>
+      <c r="C197" s="12" t="n"/>
+      <c r="D197" s="12" t="inlineStr">
         <is>
           <t>Al2O3</t>
         </is>
       </c>
-      <c r="E197" s="26" t="inlineStr">
+      <c r="E197" s="12" t="inlineStr">
         <is>
           <t>SiO2</t>
         </is>
       </c>
-      <c r="F197" s="26" t="inlineStr">
+      <c r="F197" s="12" t="inlineStr">
         <is>
           <t>CaO</t>
         </is>
       </c>
-      <c r="G197" s="26" t="inlineStr">
+      <c r="G197" s="12" t="inlineStr">
         <is>
           <t>CO2</t>
         </is>
       </c>
-      <c r="H197" s="26" t="inlineStr">
+      <c r="H197" s="12" t="inlineStr">
         <is>
           <t>Na2Oк</t>
         </is>
       </c>
-      <c r="I197" s="26" t="inlineStr">
+      <c r="I197" s="12" t="inlineStr">
         <is>
           <t>Na2Oy</t>
         </is>
       </c>
-      <c r="J197" s="26" t="inlineStr">
+      <c r="J197" s="12" t="inlineStr">
         <is>
           <t>Na2Oобщ</t>
         </is>
       </c>
-      <c r="K197" s="26" t="inlineStr">
+      <c r="K197" s="12" t="inlineStr">
         <is>
           <t>H2O</t>
         </is>
       </c>
-      <c r="L197" s="26" t="inlineStr">
+      <c r="L197" s="12" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="M197" s="26" t="n"/>
+      <c r="M197" s="12" t="n"/>
     </row>
     <row r="198">
-      <c r="B198" s="26" t="n"/>
-      <c r="C198" s="35" t="inlineStr">
+      <c r="B198" s="12" t="n"/>
+      <c r="C198" s="23" t="inlineStr">
         <is>
           <t>Введено, кг</t>
         </is>
       </c>
-      <c r="D198" s="35" t="n"/>
-      <c r="E198" s="35" t="n"/>
-      <c r="F198" s="35" t="n"/>
-      <c r="G198" s="35" t="n"/>
-      <c r="H198" s="35" t="n"/>
-      <c r="I198" s="35" t="n"/>
-      <c r="K198" s="35" t="n"/>
-      <c r="L198" s="35" t="n"/>
-      <c r="M198" s="26" t="n"/>
+      <c r="D198" s="23" t="n"/>
+      <c r="E198" s="23" t="n"/>
+      <c r="F198" s="23" t="n"/>
+      <c r="G198" s="23" t="n"/>
+      <c r="H198" s="23" t="n"/>
+      <c r="I198" s="23" t="n"/>
+      <c r="K198" s="23" t="n"/>
+      <c r="L198" s="23" t="n"/>
+      <c r="M198" s="12" t="n"/>
     </row>
     <row r="199">
-      <c r="B199" s="26" t="n"/>
-      <c r="C199" s="26" t="inlineStr">
+      <c r="B199" s="12" t="n"/>
+      <c r="C199" s="12" t="inlineStr">
         <is>
           <t>Содовый раствор</t>
         </is>
       </c>
-      <c r="D199" s="37">
+      <c r="D199" s="24">
         <f>G184</f>
         <v/>
       </c>
-      <c r="E199" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" s="37">
+      <c r="E199" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="24">
         <f>G187</f>
         <v/>
       </c>
-      <c r="H199" s="37">
+      <c r="H199" s="24">
         <f>G185</f>
         <v/>
       </c>
-      <c r="I199" s="37">
+      <c r="I199" s="24">
         <f>G186</f>
         <v/>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
-      <c r="K199" s="37">
+      <c r="K199" s="24">
         <f>G188</f>
         <v/>
       </c>
-      <c r="L199" s="37">
+      <c r="L199" s="24">
         <f>SUM(D199:K199)</f>
         <v/>
       </c>
-      <c r="M199" s="26" t="n"/>
+      <c r="M199" s="12" t="n"/>
     </row>
     <row r="200">
-      <c r="B200" s="26" t="n"/>
-      <c r="C200" s="26" t="inlineStr">
+      <c r="B200" s="12" t="n"/>
+      <c r="C200" s="12" t="inlineStr">
         <is>
           <t>Промвода</t>
         </is>
       </c>
-      <c r="D200" s="26">
+      <c r="D200" s="12">
         <f>D166</f>
         <v/>
       </c>
-      <c r="E200" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" s="26">
+      <c r="E200" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="12">
         <f>G166</f>
         <v/>
       </c>
-      <c r="H200" s="26">
+      <c r="H200" s="12">
         <f>H166</f>
         <v/>
       </c>
-      <c r="I200" s="26">
+      <c r="I200" s="12">
         <f>I166</f>
         <v/>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
-      <c r="K200" s="26">
+      <c r="K200" s="12">
         <f>J166</f>
         <v/>
       </c>
-      <c r="L200" s="37">
+      <c r="L200" s="24">
         <f>SUM(D200:K200)</f>
         <v/>
       </c>
-      <c r="M200" s="26" t="n"/>
+      <c r="M200" s="12" t="n"/>
     </row>
     <row r="201">
-      <c r="B201" s="26" t="n"/>
-      <c r="C201" s="26" t="inlineStr">
+      <c r="B201" s="12" t="n"/>
+      <c r="C201" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="D201" s="37">
+      <c r="D201" s="24">
         <f>SUM(D199:D200)</f>
         <v/>
       </c>
-      <c r="E201" s="37">
+      <c r="E201" s="24">
         <f>SUM(E199:E200)</f>
         <v/>
       </c>
-      <c r="F201" s="37">
+      <c r="F201" s="24">
         <f>SUM(F199:F200)</f>
         <v/>
       </c>
-      <c r="G201" s="37">
+      <c r="G201" s="24">
         <f>SUM(G199:G200)</f>
         <v/>
       </c>
-      <c r="H201" s="37">
+      <c r="H201" s="24">
         <f>SUM(H199:H200)</f>
         <v/>
       </c>
-      <c r="I201" s="37">
+      <c r="I201" s="24">
         <f>SUM(I199:I200)</f>
         <v/>
       </c>
       <c r="J201" t="n">
         <v>0</v>
       </c>
-      <c r="K201" s="37">
+      <c r="K201" s="24">
         <f>SUM(K199:K200)</f>
         <v/>
       </c>
-      <c r="L201" s="37">
+      <c r="L201" s="24">
         <f>SUM(L199:L200)</f>
         <v/>
       </c>
-      <c r="M201" s="26" t="n"/>
+      <c r="M201" s="12" t="n"/>
     </row>
     <row r="202">
-      <c r="B202" s="26" t="n"/>
-      <c r="C202" s="26" t="inlineStr">
+      <c r="B202" s="12" t="n"/>
+      <c r="C202" s="12" t="inlineStr">
         <is>
           <t>Получено, кг</t>
         </is>
       </c>
-      <c r="D202" s="26" t="n"/>
-      <c r="K202" s="26" t="n"/>
-      <c r="L202" s="37" t="n"/>
-      <c r="M202" s="26" t="n"/>
+      <c r="D202" s="12" t="n"/>
+      <c r="K202" s="12" t="n"/>
+      <c r="L202" s="24" t="n"/>
+      <c r="M202" s="12" t="n"/>
     </row>
     <row r="203">
-      <c r="B203" s="26" t="n"/>
-      <c r="C203" s="26" t="inlineStr">
+      <c r="B203" s="12" t="n"/>
+      <c r="C203" s="12" t="inlineStr">
         <is>
           <t>Оборотный раствор</t>
         </is>
       </c>
-      <c r="D203" s="26">
+      <c r="D203" s="12">
         <f>D11</f>
         <v/>
       </c>
-      <c r="E203" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" s="26">
+      <c r="E203" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" s="12">
         <f>I11</f>
         <v/>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" s="26">
+      <c r="I203" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" s="12">
         <f>J11</f>
         <v/>
       </c>
-      <c r="K203" s="26">
+      <c r="K203" s="12">
         <f>M11</f>
         <v/>
       </c>
-      <c r="L203" s="37">
+      <c r="L203" s="24">
         <f>SUM(D203:K203)</f>
         <v/>
       </c>
-      <c r="M203" s="26" t="n"/>
+      <c r="M203" s="12" t="n"/>
     </row>
     <row r="204">
-      <c r="B204" s="26" t="n"/>
-      <c r="C204" s="26" t="inlineStr">
+      <c r="B204" s="12" t="n"/>
+      <c r="C204" s="12" t="inlineStr">
         <is>
           <t>Потери</t>
         </is>
       </c>
-      <c r="D204" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" s="37">
+      <c r="D204" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="24">
         <f>G205-G203</f>
         <v/>
       </c>
-      <c r="H204" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" s="26" t="n">
+      <c r="H204" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" s="12" t="n">
         <v>0</v>
       </c>
       <c r="J204">
         <f>'Исходные данные'!H45</f>
         <v/>
       </c>
-      <c r="K204" s="37">
+      <c r="K204" s="24">
         <f>K205-K203</f>
         <v/>
       </c>
-      <c r="L204" s="37">
+      <c r="L204" s="24">
         <f>SUM(D204:K204)</f>
         <v/>
       </c>
-      <c r="M204" s="26" t="n"/>
+      <c r="M204" s="12" t="n"/>
     </row>
     <row r="205">
-      <c r="B205" s="26" t="n"/>
-      <c r="C205" s="26" t="inlineStr">
+      <c r="B205" s="12" t="n"/>
+      <c r="C205" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="D205" s="37">
+      <c r="D205" s="24">
         <f>D201</f>
         <v/>
       </c>
-      <c r="E205" s="37">
+      <c r="E205" s="24">
         <f>E201</f>
         <v/>
       </c>
-      <c r="F205" s="37">
+      <c r="F205" s="24">
         <f>F201</f>
         <v/>
       </c>
-      <c r="G205" s="37">
+      <c r="G205" s="24">
         <f>G201</f>
         <v/>
       </c>
-      <c r="H205" s="37">
+      <c r="H205" s="24">
         <f>H201</f>
         <v/>
       </c>
-      <c r="I205" s="37">
+      <c r="I205" s="24">
         <f>I201</f>
         <v/>
       </c>
-      <c r="J205" s="37">
+      <c r="J205" s="24">
         <f>J201</f>
         <v/>
       </c>
-      <c r="K205" s="37">
+      <c r="K205" s="24">
         <f>K201</f>
         <v/>
       </c>
-      <c r="L205" s="37">
+      <c r="L205" s="24">
         <f>SUM(L203:L204)</f>
         <v/>
       </c>
-      <c r="M205" s="26" t="n"/>
+      <c r="M205" s="12" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="C81:N81"/>
+    <mergeCell ref="C95:L95"/>
+    <mergeCell ref="C111:L111"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="C5:N5"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="C33:K33"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="C81:N81"/>
-    <mergeCell ref="C95:L95"/>
-    <mergeCell ref="C111:L111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9206,14 +8583,14 @@
   </sheetPr>
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="13.4444444444444" customWidth="1" style="12" min="13" max="13"/>
-    <col width="19.7777777777778" customWidth="1" style="12" min="20" max="20"/>
+    <col width="13.44140625" customWidth="1" min="13" max="13"/>
+    <col width="19.77734375" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9247,12 +8624,12 @@
           <t>Что можно меняем</t>
         </is>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>Что константы</t>
         </is>
       </c>
-      <c r="V2" s="6" t="n"/>
+      <c r="V2" s="5" t="n"/>
       <c r="W2" t="inlineStr">
         <is>
           <t>Примечания</t>
@@ -9318,12 +8695,12 @@
           <t>Состав сух боксита</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>расход соды 100%</t>
         </is>
       </c>
-      <c r="V3" s="6" t="n"/>
+      <c r="V3" s="5" t="n"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>Проверка состава боксита</t>
@@ -9366,12 +8743,12 @@
       <c r="N4" t="n">
         <v>100</v>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>Состав соды</t>
         </is>
       </c>
-      <c r="V4" s="6" t="n"/>
+      <c r="V4" s="5" t="n"/>
       <c r="W4" t="inlineStr">
         <is>
           <t>Влага поменять на влажность боксита\известняка</t>
@@ -9387,8 +8764,8 @@
       <c r="N5" t="n">
         <v>60</v>
       </c>
-      <c r="U5" s="5" t="n"/>
-      <c r="V5" s="6" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9404,8 +8781,8 @@
       <c r="N6" t="n">
         <v>56</v>
       </c>
-      <c r="U6" s="5" t="n"/>
-      <c r="V6" s="6" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9441,24 +8818,24 @@
       <c r="N7" t="n">
         <v>80</v>
       </c>
-      <c r="U7" s="5" t="n"/>
-      <c r="V7" s="6" t="n"/>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54.2</v>
+        <v>52.6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.6</v>
+        <v>41.3</v>
       </c>
       <c r="C8" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -9468,8 +8845,8 @@
       <c r="N8" t="n">
         <v>102</v>
       </c>
-      <c r="U8" s="5" t="n"/>
-      <c r="V8" s="6" t="n"/>
+      <c r="U8" s="4" t="n"/>
+      <c r="V8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="M9" t="inlineStr">
@@ -9480,8 +8857,8 @@
       <c r="N9" t="n">
         <v>160</v>
       </c>
-      <c r="U9" s="5" t="n"/>
-      <c r="V9" s="6" t="n"/>
+      <c r="U9" s="4" t="n"/>
+      <c r="V9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9497,8 +8874,8 @@
       <c r="N10" t="n">
         <v>44</v>
       </c>
-      <c r="U10" s="5" t="n"/>
-      <c r="V10" s="6" t="n"/>
+      <c r="U10" s="4" t="n"/>
+      <c r="V10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9512,7 +8889,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -9529,13 +8906,13 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>98.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U11" s="5" t="n"/>
-      <c r="V11" s="6" t="n"/>
+        <v>1.5</v>
+      </c>
+      <c r="U11" s="4" t="n"/>
+      <c r="V11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -9562,15 +8939,15 @@
         <v/>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t xml:space="preserve">Мольное отношение </t>
         </is>
       </c>
-      <c r="U12" s="5" t="n"/>
-      <c r="V12" s="6" t="n"/>
+      <c r="U12" s="4" t="n"/>
+      <c r="V12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
@@ -9751,12 +9128,12 @@
       </c>
     </row>
     <row r="34">
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" s="21" t="inlineStr">
         <is>
           <t>Al2O3</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n"/>
+      <c r="F34" s="21" t="n"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>Na2O</t>
@@ -9983,7 +9360,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -10065,25 +9442,25 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>31.3</v>
+        <v>27.6</v>
       </c>
       <c r="B54" t="n">
-        <v>19.4</v>
+        <v>17.1</v>
       </c>
       <c r="C54" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D54" t="n">
-        <v>29.4</v>
+        <v>33.2</v>
       </c>
       <c r="E54" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G54" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="56">
@@ -10157,22 +9534,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="38" t="n">
+      <c r="A63" s="25" t="n">
         <v>44631</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="inlineStr">
+      <c r="A66" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">12. Al2O3 поступающий на спекание с алюминатном растворе </t>
         </is>
       </c>
-      <c r="B66" s="7" t="n"/>
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="7" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
       <c r="J66" t="n">
         <v>20</v>
       </c>
@@ -10198,7 +9575,7 @@
           <t>Концетрация Na2O</t>
         </is>
       </c>
-      <c r="J68" s="8" t="n">
+      <c r="J68" s="7" t="n">
         <v>310</v>
       </c>
       <c r="K68" t="inlineStr">
@@ -10228,7 +9605,7 @@
           <t xml:space="preserve">13. Влажность карбонатного шлама </t>
         </is>
       </c>
-      <c r="J70" s="8" t="n">
+      <c r="J70" s="7" t="n">
         <v>33</v>
       </c>
       <c r="K70" t="inlineStr">
@@ -10243,7 +9620,7 @@
           <t>Плотность маточного раствора</t>
         </is>
       </c>
-      <c r="J72" s="8" t="n">
+      <c r="J72" s="7" t="n">
         <v>1220</v>
       </c>
       <c r="K72" t="inlineStr">
@@ -10268,7 +9645,7 @@
           <t>Плотность алюм раствора после 2 стадии обескремнивания</t>
         </is>
       </c>
-      <c r="J74" s="8" t="n">
+      <c r="J74" s="7" t="n">
         <v>1215</v>
       </c>
       <c r="K74" t="inlineStr">
@@ -10293,7 +9670,7 @@
           <t>Общии кауст модуль алюм раствора после 2 стадии обескремнивания</t>
         </is>
       </c>
-      <c r="J76" s="8" t="n">
+      <c r="J76" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10318,7 +9695,7 @@
           <t>Каустичиский модуль алюминатного раствора после регенерации КГГ</t>
         </is>
       </c>
-      <c r="J78" s="8" t="n">
+      <c r="J78" s="7" t="n">
         <v>3.4</v>
       </c>
     </row>
